--- a/Assignment/Module 2/HLR & TESTCASES.xlsx
+++ b/Assignment/Module 2/HLR & TESTCASES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TOPS-master\Assignments\Module 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bk_2024\TOPS\Assignment\Module 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D7E58A-4BB1-4DC5-AF38-2C913F1F8E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8ABCE7-CDFF-4BF1-99B7-2DA7C7D0193E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="815" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="815" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR OF WHATSAPP_WEB" sheetId="1" r:id="rId1"/>
@@ -3128,8 +3128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A27579-070F-4B9A-B5FE-6DF327C47025}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
@@ -7268,7 +7268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586DFC6F-FA8B-44A8-A5AA-6998F4FB9980}">
   <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
